--- a/data/trans_bre/P25_12-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_12-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,46</t>
+          <t>12,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,26</t>
+          <t>22,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,86</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>276,26%</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>111,33%</t>
+          <t>126,4%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>61,0%</t>
+          <t>176,7%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>20,83%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,62%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,15; 22,55</t>
+          <t>-3,18; 27,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 20,6</t>
+          <t>4,75; 39,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 14,85</t>
+          <t>-12,27; 20,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>49,72; 947,35</t>
+          <t>-22,49; 23,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 358,67</t>
+          <t>-24,58; 1062,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-28,2; 262,82</t>
+          <t>13,35; 821,53</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-49,71; 248,93</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-61,15; 207,63</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,63</t>
+          <t>9,85</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,66</t>
+          <t>12,51</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,57</t>
+          <t>10,86</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>193,24%</t>
+          <t>12,01</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>202,29%</t>
+          <t>154,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>184,76%</t>
+          <t>209,77%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>209,66%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>152,69%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,31; 16,07</t>
+          <t>3,69; 16,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,67; 16,66</t>
+          <t>6,09; 18,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,33; 14,92</t>
+          <t>5,34; 17,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>49,16; 457,7</t>
+          <t>4,63; 19,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>74,52; 429,2</t>
+          <t>28,37; 430,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>69,62; 411,0</t>
+          <t>65,2; 523,47</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>62,06; 604,11</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>38,29; 419,11</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,22</t>
+          <t>9,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>76,69%</t>
+          <t>6,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>219,05%</t>
+          <t>30,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>116,73%</t>
+          <t>197,29%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>58,38%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>71,92%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 8,66</t>
+          <t>-3,79; 7,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,54; 16,76</t>
+          <t>2,88; 15,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 12,7</t>
+          <t>-2,95; 10,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,93; 302,28</t>
+          <t>-1,14; 14,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>61,6; 555,56</t>
+          <t>-45,3; 378,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,55; 342,22</t>
+          <t>17,43; 715,22</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-34,1; 303,47</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-14,18; 258,45</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,54</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>166,83%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>185,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>133,64%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,57; 12,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,27; 15,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,86; 11,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>70,39; 312,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>101,45; 331,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>60,35; 248,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6,7</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12,54</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7,1</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8,22</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>102,26%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>194,51%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>96,63%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>76,38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2,54; 11,04</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>8,2; 17,16</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,39; 11,48</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2,59; 13,56</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>21,78; 228,47</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>82,95; 396,83</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>21,2; 215,23</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>18,41; 163,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25_12-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_12-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>12,06</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>22,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,48</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>126,4%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>176,7%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>20,83%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,62%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>12.41367917438429</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>21.88712386888387</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.009157029713213</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.5677044397277842</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>1.368860667872974</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1.704753630665805</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1165711740638157</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.02545422385367102</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,18; 27,4</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>4,75; 39,55</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-12,27; 20,21</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-22,49; 23,29</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-24,58; 1062,12</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>13,35; 821,53</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-49,71; 248,93</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-61,15; 207,63</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.524202416798871</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>4.349704920492205</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-14.59275446853578</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-23.49033833556424</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.2097690176021394</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.08129242258235067</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.5395036360905684</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.6243511169011687</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>27.67636673304611</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>39.6817294967146</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>18.69152430272653</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>22.00782386589754</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>10.85209627244108</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>8.01828881133979</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.120034543647679</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.269832832016794</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>9,85</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>12,51</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>10,86</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>12,01</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>154,28%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>209,77%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>209,66%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>152,69%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>3,69; 16,31</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>6,09; 18,84</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>5,34; 17,36</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>4,63; 19,39</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>28,37; 430,13</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>65,2; 523,47</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>62,06; 604,11</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>38,29; 419,11</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>10.55770878175742</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>13.19054433991808</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>10.81855398054741</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>12.70944997352146</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>1.815583539463895</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>2.151177000074302</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>2.08020860288964</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.683981970247234</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,7</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>9,53</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,87</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,79</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>30,22%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>197,29%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>58,38%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>71,92%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>4.479240915678501</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>6.425907844101158</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>5.185027946388366</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>5.727171194828659</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.4207648533087117</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.6510144244791536</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.5938857249662189</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.4983557526560422</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,79; 7,59</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,88; 15,96</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,95; 10,35</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-1,14; 14,61</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-45,3; 378,53</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>17,43; 715,22</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-34,1; 303,47</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-14,18; 258,45</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>16.86879734408896</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>20.02222756248781</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>17.4971108457761</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>20.16145257410979</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>4.922970573512152</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>5.370728378993382</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>6.09638486514083</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>4.465712431460052</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.7881384116288997</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>9.011676939626625</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.8376364811637</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>6.969222914297993</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.1145466027403324</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1.560707869978216</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.5794422392510487</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.7359685032629417</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.817465710898375</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.7971030959714182</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.118074568227098</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-1.268446623660798</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.6801534067024302</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1062587950159899</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.3786504952051152</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.1481399549158528</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.181579223180309</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>15.69030479840554</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10.30614776505551</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>14.70424628213782</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>2.443798176533805</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>5.720031665755897</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>2.964682758708018</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.514366909309852</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>6,7</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>12,54</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>7,1</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>8,22</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>102,26%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>194,51%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>96,63%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>76,38%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>2,54; 11,04</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>8,2; 17,16</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,39; 11,48</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 13,56</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>21,78; 228,47</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>82,95; 396,83</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>21,2; 215,23</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>18,41; 163,61</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>6.826194997163331</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>12.80539542584431</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.006944177192503</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>8.586067445249503</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1.02206914935413</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.859861828767738</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.9513170842177101</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.8107616630038045</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1.956514531585434</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>7.991370552558753</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>2.267189283135202</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>2.912689652901002</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.1304025648792172</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.7011429006174612</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.20506165804797</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.2346465951488806</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>11.11803106000841</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>17.83203858567838</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.4052074162459</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>13.6681621151414</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>2.345530945876955</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>3.828227219625783</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.151120177585064</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.728847300782805</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
